--- a/data/pca/factorExposure/factorExposure_2015-06-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0178686886108644</v>
+        <v>0.00821627898276444</v>
       </c>
       <c r="C2">
-        <v>0.02189158806945319</v>
+        <v>-0.04999458461789922</v>
       </c>
       <c r="D2">
-        <v>0.110296497922036</v>
+        <v>-0.1366171198826975</v>
       </c>
       <c r="E2">
-        <v>-0.006054238497398166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.007744996050689818</v>
+      </c>
+      <c r="F2">
+        <v>-0.01607616077406724</v>
+      </c>
+      <c r="G2">
+        <v>-0.1230101645982303</v>
+      </c>
+      <c r="H2">
+        <v>0.06876235857517887</v>
+      </c>
+      <c r="I2">
+        <v>0.04489977436560331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.006834016603902373</v>
+        <v>-0.005897272366949806</v>
       </c>
       <c r="C3">
-        <v>0.007457134675220983</v>
+        <v>-0.00120503635227682</v>
       </c>
       <c r="D3">
-        <v>-0.00599047265995572</v>
+        <v>-0.001858650454600636</v>
       </c>
       <c r="E3">
-        <v>-0.002343693758262208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01255973363928191</v>
+      </c>
+      <c r="F3">
+        <v>0.005630644724445729</v>
+      </c>
+      <c r="G3">
+        <v>0.003025397552145571</v>
+      </c>
+      <c r="H3">
+        <v>-0.01353212103508804</v>
+      </c>
+      <c r="I3">
+        <v>0.007817555506798295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0446983006464642</v>
+        <v>0.01833861253045584</v>
       </c>
       <c r="C4">
-        <v>0.06877630923810485</v>
+        <v>-0.09964172359480136</v>
       </c>
       <c r="D4">
-        <v>0.1324379933570513</v>
+        <v>-0.1382592037320788</v>
       </c>
       <c r="E4">
-        <v>-0.08030284734558669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01513279436112695</v>
+      </c>
+      <c r="F4">
+        <v>-0.08658053093841374</v>
+      </c>
+      <c r="G4">
+        <v>-0.004571415536210101</v>
+      </c>
+      <c r="H4">
+        <v>0.05284512595984975</v>
+      </c>
+      <c r="I4">
+        <v>-0.0601961717944321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02439513032011216</v>
+        <v>0.02689603793244351</v>
       </c>
       <c r="C6">
-        <v>0.01275545798750737</v>
+        <v>-0.03163713968927828</v>
       </c>
       <c r="D6">
-        <v>0.1401250111918292</v>
+        <v>-0.1281049667895233</v>
       </c>
       <c r="E6">
-        <v>-0.03470322171953519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04678130834118057</v>
+      </c>
+      <c r="F6">
+        <v>-0.04898806523747408</v>
+      </c>
+      <c r="G6">
+        <v>-0.0003078274542099223</v>
+      </c>
+      <c r="H6">
+        <v>0.06653668981544654</v>
+      </c>
+      <c r="I6">
+        <v>0.002019720539790714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.006315836811832578</v>
+        <v>0.008682728676557503</v>
       </c>
       <c r="C7">
-        <v>0.02213438272892287</v>
+        <v>-0.03230661165779288</v>
       </c>
       <c r="D7">
-        <v>0.1123834940624269</v>
+        <v>-0.1005293957440623</v>
       </c>
       <c r="E7">
-        <v>-0.00128101794860116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05103480279979853</v>
+      </c>
+      <c r="F7">
+        <v>-0.008644619653329568</v>
+      </c>
+      <c r="G7">
+        <v>0.01034507794833738</v>
+      </c>
+      <c r="H7">
+        <v>0.07926935412927844</v>
+      </c>
+      <c r="I7">
+        <v>0.01629274129257847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002992362546111176</v>
+        <v>-0.01329416963347855</v>
       </c>
       <c r="C8">
-        <v>0.02561352241745325</v>
+        <v>-0.03181567346889601</v>
       </c>
       <c r="D8">
-        <v>0.08013735829390506</v>
+        <v>-0.07760490071238095</v>
       </c>
       <c r="E8">
-        <v>-0.02443495850039005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01982522915775657</v>
+      </c>
+      <c r="F8">
+        <v>-0.04501546856062395</v>
+      </c>
+      <c r="G8">
+        <v>-0.06242541628202299</v>
+      </c>
+      <c r="H8">
+        <v>0.01035247685233207</v>
+      </c>
+      <c r="I8">
+        <v>0.0257039512517018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03806108093033655</v>
+        <v>0.01306281712298771</v>
       </c>
       <c r="C9">
-        <v>0.05839834163573916</v>
+        <v>-0.08273617554401395</v>
       </c>
       <c r="D9">
-        <v>0.1316473882628072</v>
+        <v>-0.1194205512561291</v>
       </c>
       <c r="E9">
-        <v>-0.0647152130039037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005848055151104007</v>
+      </c>
+      <c r="F9">
+        <v>-0.05729247219463664</v>
+      </c>
+      <c r="G9">
+        <v>0.01636844041978605</v>
+      </c>
+      <c r="H9">
+        <v>0.06441056064907072</v>
+      </c>
+      <c r="I9">
+        <v>-0.02428889535761664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1567518742062775</v>
+        <v>0.2332238301699824</v>
       </c>
       <c r="C10">
-        <v>-0.1782819941778765</v>
+        <v>0.1000281298712419</v>
       </c>
       <c r="D10">
-        <v>0.008359747325010297</v>
+        <v>0.005020489407600172</v>
       </c>
       <c r="E10">
-        <v>-0.04782186364568256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02681302192347527</v>
+      </c>
+      <c r="F10">
+        <v>-0.0403975833017278</v>
+      </c>
+      <c r="G10">
+        <v>-0.00686271049890319</v>
+      </c>
+      <c r="H10">
+        <v>-0.06662039902199091</v>
+      </c>
+      <c r="I10">
+        <v>0.08881199064760079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02164236553412457</v>
+        <v>0.008992827531357123</v>
       </c>
       <c r="C11">
-        <v>0.03942156673761903</v>
+        <v>-0.05226730487855696</v>
       </c>
       <c r="D11">
-        <v>0.05017063193859542</v>
+        <v>-0.04321648112225041</v>
       </c>
       <c r="E11">
-        <v>0.01594723573336113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01983668288312428</v>
+      </c>
+      <c r="F11">
+        <v>0.01195578868052421</v>
+      </c>
+      <c r="G11">
+        <v>0.0064214166540093</v>
+      </c>
+      <c r="H11">
+        <v>0.04991749846971229</v>
+      </c>
+      <c r="I11">
+        <v>-0.05205873406686538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02295594291559547</v>
+        <v>0.009741748995398014</v>
       </c>
       <c r="C12">
-        <v>0.03967062909885479</v>
+        <v>-0.04869710271303151</v>
       </c>
       <c r="D12">
-        <v>0.06301191393419757</v>
+        <v>-0.04883615850060793</v>
       </c>
       <c r="E12">
-        <v>0.006024305957394799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01932465282644982</v>
+      </c>
+      <c r="F12">
+        <v>0.0168793422308212</v>
+      </c>
+      <c r="G12">
+        <v>0.02761797470756919</v>
+      </c>
+      <c r="H12">
+        <v>0.07219854456855518</v>
+      </c>
+      <c r="I12">
+        <v>-0.02902176436112511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005834080657176856</v>
+        <v>-0.002198909015274046</v>
       </c>
       <c r="C13">
-        <v>0.02309724681850353</v>
+        <v>-0.04140398600176557</v>
       </c>
       <c r="D13">
-        <v>0.1483671928252981</v>
+        <v>-0.1485022057908443</v>
       </c>
       <c r="E13">
-        <v>-0.03411533192360405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0373974099551079</v>
+      </c>
+      <c r="F13">
+        <v>-0.03757353224909409</v>
+      </c>
+      <c r="G13">
+        <v>-0.03260485145282344</v>
+      </c>
+      <c r="H13">
+        <v>0.08486502643886551</v>
+      </c>
+      <c r="I13">
+        <v>0.1193666788522442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003750732230633516</v>
+        <v>-0.001723477759359292</v>
       </c>
       <c r="C14">
-        <v>0.01783547787520435</v>
+        <v>-0.02647459972817547</v>
       </c>
       <c r="D14">
-        <v>0.09874412041081602</v>
+        <v>-0.1033624607220504</v>
       </c>
       <c r="E14">
-        <v>-0.009068493318603035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.02954279280666381</v>
+      </c>
+      <c r="F14">
+        <v>-0.02780757460024037</v>
+      </c>
+      <c r="G14">
+        <v>-0.01468615099807794</v>
+      </c>
+      <c r="H14">
+        <v>0.1334907643258115</v>
+      </c>
+      <c r="I14">
+        <v>0.01798518225092912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001512386605500581</v>
+        <v>-0.00135317244063145</v>
       </c>
       <c r="C15">
-        <v>0.01020422278028311</v>
+        <v>-0.01977630122481818</v>
       </c>
       <c r="D15">
-        <v>0.02685797808639438</v>
+        <v>-0.05456352153158832</v>
       </c>
       <c r="E15">
-        <v>0.003099060285160516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.005913688947242772</v>
+      </c>
+      <c r="F15">
+        <v>-0.00451340120198867</v>
+      </c>
+      <c r="G15">
+        <v>-0.02248094949591947</v>
+      </c>
+      <c r="H15">
+        <v>0.02980193359938619</v>
+      </c>
+      <c r="I15">
+        <v>-0.01839220570298433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02210917468169809</v>
+        <v>0.009822335412929605</v>
       </c>
       <c r="C16">
-        <v>0.03757600114375562</v>
+        <v>-0.04814434297417861</v>
       </c>
       <c r="D16">
-        <v>0.05711281263359562</v>
+        <v>-0.04485792291038281</v>
       </c>
       <c r="E16">
-        <v>0.00941877943429901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02142106246814096</v>
+      </c>
+      <c r="F16">
+        <v>0.008898861571288559</v>
+      </c>
+      <c r="G16">
+        <v>0.01918331255917138</v>
+      </c>
+      <c r="H16">
+        <v>0.05368396563573086</v>
+      </c>
+      <c r="I16">
+        <v>-0.04639586216307452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006296427746743255</v>
+        <v>0.000501489209392007</v>
       </c>
       <c r="C19">
-        <v>0.01960272809510677</v>
+        <v>-0.01875372136959713</v>
       </c>
       <c r="D19">
-        <v>0.1090477157101828</v>
+        <v>-0.06996531452737613</v>
       </c>
       <c r="E19">
-        <v>-0.04305190865393016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02068401434951854</v>
+      </c>
+      <c r="F19">
+        <v>-0.006296555993755808</v>
+      </c>
+      <c r="G19">
+        <v>-0.008049179038638313</v>
+      </c>
+      <c r="H19">
+        <v>0.06646488089113342</v>
+      </c>
+      <c r="I19">
+        <v>0.04505566550644631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004544225854658521</v>
+        <v>0.003440730646283608</v>
       </c>
       <c r="C20">
-        <v>0.02409766152064982</v>
+        <v>-0.0370897867152554</v>
       </c>
       <c r="D20">
-        <v>0.08896769525229783</v>
+        <v>-0.09546502483000718</v>
       </c>
       <c r="E20">
-        <v>-0.03428905191645969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.008185090335419316</v>
+      </c>
+      <c r="F20">
+        <v>-0.02636966554928888</v>
+      </c>
+      <c r="G20">
+        <v>0.006022325003712185</v>
+      </c>
+      <c r="H20">
+        <v>0.06011272209477034</v>
+      </c>
+      <c r="I20">
+        <v>-0.0238385009531065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.008150577001253729</v>
+        <v>0.001577066662502946</v>
       </c>
       <c r="C21">
-        <v>0.02883404581730481</v>
+        <v>-0.03865614171120662</v>
       </c>
       <c r="D21">
-        <v>0.1639436906958915</v>
+        <v>-0.1309959746209582</v>
       </c>
       <c r="E21">
-        <v>-0.07168860316597231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0002573578154802469</v>
+      </c>
+      <c r="F21">
+        <v>-0.07748591925329744</v>
+      </c>
+      <c r="G21">
+        <v>-0.01802562973110986</v>
+      </c>
+      <c r="H21">
+        <v>0.2003265751162489</v>
+      </c>
+      <c r="I21">
+        <v>0.1657808360209084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002013098731619258</v>
+        <v>-0.01116101103166706</v>
       </c>
       <c r="C22">
-        <v>0.0606370442332798</v>
+        <v>-0.08237934112331501</v>
       </c>
       <c r="D22">
-        <v>0.2360735383935058</v>
+        <v>-0.2721997942227617</v>
       </c>
       <c r="E22">
-        <v>0.02258865415459557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0480295603588902</v>
+      </c>
+      <c r="F22">
+        <v>-0.03480248896165129</v>
+      </c>
+      <c r="G22">
+        <v>-0.3639678062936692</v>
+      </c>
+      <c r="H22">
+        <v>-0.3720368673877176</v>
+      </c>
+      <c r="I22">
+        <v>-0.1275190014517076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002281091722960837</v>
+        <v>-0.01076898102267909</v>
       </c>
       <c r="C23">
-        <v>0.06111825617556822</v>
+        <v>-0.08339665475312245</v>
       </c>
       <c r="D23">
-        <v>0.2356368185892569</v>
+        <v>-0.2729226197694894</v>
       </c>
       <c r="E23">
-        <v>0.02242257126229217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04473195465709676</v>
+      </c>
+      <c r="F23">
+        <v>-0.03436999444202531</v>
+      </c>
+      <c r="G23">
+        <v>-0.3634973219418025</v>
+      </c>
+      <c r="H23">
+        <v>-0.3721795763108944</v>
+      </c>
+      <c r="I23">
+        <v>-0.1281893007565034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02816879708043502</v>
+        <v>0.008958464803288839</v>
       </c>
       <c r="C24">
-        <v>0.05578716861026186</v>
+        <v>-0.06497912271890409</v>
       </c>
       <c r="D24">
-        <v>0.0692595732183998</v>
+        <v>-0.05275300052490724</v>
       </c>
       <c r="E24">
-        <v>0.004999945336385481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02535405985766863</v>
+      </c>
+      <c r="F24">
+        <v>0.006444469878682745</v>
+      </c>
+      <c r="G24">
+        <v>0.01074568292145278</v>
+      </c>
+      <c r="H24">
+        <v>0.07976805465085542</v>
+      </c>
+      <c r="I24">
+        <v>-0.04189656432647301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02998562773611347</v>
+        <v>0.01278118991694017</v>
       </c>
       <c r="C25">
-        <v>0.04690080854251493</v>
+        <v>-0.06027909586949475</v>
       </c>
       <c r="D25">
-        <v>0.06227733415904095</v>
+        <v>-0.05094690375950895</v>
       </c>
       <c r="E25">
-        <v>0.0009935439206573021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01240125019251998</v>
+      </c>
+      <c r="F25">
+        <v>0.008432912738865031</v>
+      </c>
+      <c r="G25">
+        <v>0.01637975937673516</v>
+      </c>
+      <c r="H25">
+        <v>0.0452979810057236</v>
+      </c>
+      <c r="I25">
+        <v>-0.03172667774232543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.00973246318571918</v>
+        <v>0.006935146417103219</v>
       </c>
       <c r="C26">
-        <v>0.01422226857905921</v>
+        <v>-0.02484831726662004</v>
       </c>
       <c r="D26">
-        <v>0.08260008801593031</v>
+        <v>-0.06986942297492618</v>
       </c>
       <c r="E26">
-        <v>-0.01811340583300873</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02652168426118071</v>
+      </c>
+      <c r="F26">
+        <v>-0.0215851723240763</v>
+      </c>
+      <c r="G26">
+        <v>0.01108800274354992</v>
+      </c>
+      <c r="H26">
+        <v>0.08933160816976053</v>
+      </c>
+      <c r="I26">
+        <v>0.0398895454396721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2411347256291658</v>
+        <v>0.3190975100066554</v>
       </c>
       <c r="C28">
-        <v>-0.2194276139658402</v>
+        <v>0.1003715330528195</v>
       </c>
       <c r="D28">
-        <v>0.01898290220891301</v>
+        <v>0.005825645743738635</v>
       </c>
       <c r="E28">
-        <v>-0.06852807300404981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05940230649691574</v>
+      </c>
+      <c r="F28">
+        <v>-0.03766813028081099</v>
+      </c>
+      <c r="G28">
+        <v>-0.03272793204937679</v>
+      </c>
+      <c r="H28">
+        <v>-0.01263998831241186</v>
+      </c>
+      <c r="I28">
+        <v>0.1260184259838953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0003185216408753937</v>
+        <v>-0.002452374607733088</v>
       </c>
       <c r="C29">
-        <v>0.02132313403455384</v>
+        <v>-0.02962504376403913</v>
       </c>
       <c r="D29">
-        <v>0.09663711885369984</v>
+        <v>-0.09971764700400462</v>
       </c>
       <c r="E29">
-        <v>-0.0135856223026173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03927990684716948</v>
+      </c>
+      <c r="F29">
+        <v>-0.03471503155398933</v>
+      </c>
+      <c r="G29">
+        <v>-0.00360888229418123</v>
+      </c>
+      <c r="H29">
+        <v>0.1410920709974628</v>
+      </c>
+      <c r="I29">
+        <v>0.01799911892154228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02585966084972716</v>
+        <v>0.01408739887484984</v>
       </c>
       <c r="C30">
-        <v>0.05714849368522384</v>
+        <v>-0.08285499427129145</v>
       </c>
       <c r="D30">
-        <v>0.1648623003207355</v>
+        <v>-0.1603363045346873</v>
       </c>
       <c r="E30">
-        <v>-0.02141657269469386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03955637959423115</v>
+      </c>
+      <c r="F30">
+        <v>-0.03578214569042164</v>
+      </c>
+      <c r="G30">
+        <v>-0.02796858062931836</v>
+      </c>
+      <c r="H30">
+        <v>0.06320338516049423</v>
+      </c>
+      <c r="I30">
+        <v>-0.0712078792926203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04579513164236582</v>
+        <v>0.009493224601840921</v>
       </c>
       <c r="C31">
-        <v>0.08320393917308405</v>
+        <v>-0.09211780857966494</v>
       </c>
       <c r="D31">
-        <v>0.06948117144259032</v>
+        <v>-0.04103157634654452</v>
       </c>
       <c r="E31">
-        <v>-0.01182384746561869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008972857800850002</v>
+      </c>
+      <c r="F31">
+        <v>-0.01078872166134556</v>
+      </c>
+      <c r="G31">
+        <v>-0.00308891747036298</v>
+      </c>
+      <c r="H31">
+        <v>0.04600822175444093</v>
+      </c>
+      <c r="I31">
+        <v>0.05565122177118645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0224021956708081</v>
+        <v>0.01148929781132176</v>
       </c>
       <c r="C32">
-        <v>0.03043888282738097</v>
+        <v>-0.04408576481354184</v>
       </c>
       <c r="D32">
-        <v>0.1064431956225282</v>
+        <v>-0.1111872697433992</v>
       </c>
       <c r="E32">
-        <v>-0.06756573027240358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.00426853598143793</v>
+      </c>
+      <c r="F32">
+        <v>-0.04364748608568295</v>
+      </c>
+      <c r="G32">
+        <v>-0.01894864373144966</v>
+      </c>
+      <c r="H32">
+        <v>0.04236991671840908</v>
+      </c>
+      <c r="I32">
+        <v>0.07567749965672074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01377581517588598</v>
+        <v>0.005965592453399584</v>
       </c>
       <c r="C33">
-        <v>0.03972928470585815</v>
+        <v>-0.05507556616692642</v>
       </c>
       <c r="D33">
-        <v>0.1410843136984983</v>
+        <v>-0.1244280707075005</v>
       </c>
       <c r="E33">
-        <v>-0.0393686660881978</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01643825195130311</v>
+      </c>
+      <c r="F33">
+        <v>-0.02482098824550437</v>
+      </c>
+      <c r="G33">
+        <v>-0.0003019552136932292</v>
+      </c>
+      <c r="H33">
+        <v>0.06865353790548182</v>
+      </c>
+      <c r="I33">
+        <v>0.006410318088995795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02545381105798075</v>
+        <v>0.00630562119424782</v>
       </c>
       <c r="C34">
-        <v>0.05794609059028485</v>
+        <v>-0.06203051939683538</v>
       </c>
       <c r="D34">
-        <v>0.05117959338513339</v>
+        <v>-0.03061146292717938</v>
       </c>
       <c r="E34">
-        <v>0.04794177100005815</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03038961832070335</v>
+      </c>
+      <c r="F34">
+        <v>0.03699987325943804</v>
+      </c>
+      <c r="G34">
+        <v>0.01226618078092212</v>
+      </c>
+      <c r="H34">
+        <v>0.06093297101162062</v>
+      </c>
+      <c r="I34">
+        <v>-0.01958078045875538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001564394500783362</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.006613874982885427</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02837551687457658</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.00398991284843628</v>
+      </c>
+      <c r="F35">
+        <v>-0.01049369612885229</v>
+      </c>
+      <c r="G35">
+        <v>-0.004946530624760755</v>
+      </c>
+      <c r="H35">
+        <v>0.03626582555356558</v>
+      </c>
+      <c r="I35">
+        <v>-0.02181531501322916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009010792276025349</v>
+        <v>0.005855110000951237</v>
       </c>
       <c r="C36">
-        <v>0.005486108926924833</v>
+        <v>-0.01925597857156847</v>
       </c>
       <c r="D36">
-        <v>0.08833694109755387</v>
+        <v>-0.07530117372291383</v>
       </c>
       <c r="E36">
-        <v>-0.04206964949989668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.006286252144289755</v>
+      </c>
+      <c r="F36">
+        <v>-0.03547319614991401</v>
+      </c>
+      <c r="G36">
+        <v>0.001316501845765176</v>
+      </c>
+      <c r="H36">
+        <v>0.06376844535160957</v>
+      </c>
+      <c r="I36">
+        <v>0.02425477161142726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006555518406050098</v>
+        <v>0.01218706202376929</v>
       </c>
       <c r="C38">
-        <v>0.00557340813297292</v>
+        <v>-0.01501949924518649</v>
       </c>
       <c r="D38">
-        <v>0.08462238080100518</v>
+        <v>-0.08419090864988743</v>
       </c>
       <c r="E38">
-        <v>-0.01099719051290759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01102885593744695</v>
+      </c>
+      <c r="F38">
+        <v>0.007986859644386052</v>
+      </c>
+      <c r="G38">
+        <v>-0.01884377321959895</v>
+      </c>
+      <c r="H38">
+        <v>0.05542827959102026</v>
+      </c>
+      <c r="I38">
+        <v>0.02699938744846243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02119460742580013</v>
+        <v>0.004487613943705498</v>
       </c>
       <c r="C39">
-        <v>0.05580583562864015</v>
+        <v>-0.07451426292315178</v>
       </c>
       <c r="D39">
-        <v>0.1162819392726858</v>
+        <v>-0.1030984982951993</v>
       </c>
       <c r="E39">
-        <v>0.0198087886529854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04887291257581878</v>
+      </c>
+      <c r="F39">
+        <v>0.003157211557936898</v>
+      </c>
+      <c r="G39">
+        <v>0.01295237194418132</v>
+      </c>
+      <c r="H39">
+        <v>0.1104740385426128</v>
+      </c>
+      <c r="I39">
+        <v>-0.06924396236938508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01113852924225687</v>
+        <v>0.01009882259374797</v>
       </c>
       <c r="C40">
-        <v>0.01550329181809044</v>
+        <v>-0.02380717465512863</v>
       </c>
       <c r="D40">
-        <v>0.1187319184350703</v>
+        <v>-0.09644557777547201</v>
       </c>
       <c r="E40">
-        <v>0.01866855033116037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04318531896847552</v>
+      </c>
+      <c r="F40">
+        <v>0.02153936418912566</v>
+      </c>
+      <c r="G40">
+        <v>-0.0630508736039397</v>
+      </c>
+      <c r="H40">
+        <v>0.08673101894178541</v>
+      </c>
+      <c r="I40">
+        <v>0.08882281994541254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01140933269774049</v>
+        <v>0.0126876311928706</v>
       </c>
       <c r="C41">
-        <v>0.005567029775282728</v>
+        <v>-0.01497174863334648</v>
       </c>
       <c r="D41">
-        <v>0.05145314657833154</v>
+        <v>-0.04092732994776017</v>
       </c>
       <c r="E41">
-        <v>-0.03215121270191586</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02050278373671188</v>
+      </c>
+      <c r="F41">
+        <v>-0.01520115570545042</v>
+      </c>
+      <c r="G41">
+        <v>-0.01087986671197317</v>
+      </c>
+      <c r="H41">
+        <v>0.04053853732333274</v>
+      </c>
+      <c r="I41">
+        <v>0.02795238647661066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005633365079209413</v>
+        <v>0.006345854004457648</v>
       </c>
       <c r="C43">
-        <v>0.00627258516528924</v>
+        <v>-0.01382847085479827</v>
       </c>
       <c r="D43">
-        <v>0.06210087234229567</v>
+        <v>-0.04932935900151002</v>
       </c>
       <c r="E43">
-        <v>-0.0198806875871124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.003207557567759929</v>
+      </c>
+      <c r="F43">
+        <v>-0.01244087203888232</v>
+      </c>
+      <c r="G43">
+        <v>-0.009815342070859</v>
+      </c>
+      <c r="H43">
+        <v>0.05868532089163388</v>
+      </c>
+      <c r="I43">
+        <v>0.01150444503037194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01727492426381861</v>
+        <v>0.009086911344684957</v>
       </c>
       <c r="C44">
-        <v>0.02427134001600795</v>
+        <v>-0.04465938063925404</v>
       </c>
       <c r="D44">
-        <v>0.1127402254038481</v>
+        <v>-0.1171417977542397</v>
       </c>
       <c r="E44">
-        <v>-0.04495759402096315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01987682213727998</v>
+      </c>
+      <c r="F44">
+        <v>-0.02907814331349454</v>
+      </c>
+      <c r="G44">
+        <v>-0.02102884976130882</v>
+      </c>
+      <c r="H44">
+        <v>0.05688989827822014</v>
+      </c>
+      <c r="I44">
+        <v>-0.05856271700355755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.008069238311191327</v>
+        <v>-0.001130712528843054</v>
       </c>
       <c r="C46">
-        <v>0.02699686178458015</v>
+        <v>-0.03839650101247943</v>
       </c>
       <c r="D46">
-        <v>0.09080629568768867</v>
+        <v>-0.08323084673733043</v>
       </c>
       <c r="E46">
-        <v>-0.02043865285725491</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02612563730868001</v>
+      </c>
+      <c r="F46">
+        <v>-0.02775977180814121</v>
+      </c>
+      <c r="G46">
+        <v>-0.01055095623599474</v>
+      </c>
+      <c r="H46">
+        <v>0.1446998776200486</v>
+      </c>
+      <c r="I46">
+        <v>0.002569773932262173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0877984486762213</v>
+        <v>0.0346130923496501</v>
       </c>
       <c r="C47">
-        <v>0.1020048037678059</v>
+        <v>-0.124190415425665</v>
       </c>
       <c r="D47">
-        <v>0.05999660250971554</v>
+        <v>-0.02469016160978888</v>
       </c>
       <c r="E47">
-        <v>-0.02900377285179898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02086175313789703</v>
+      </c>
+      <c r="F47">
+        <v>0.01398239708828315</v>
+      </c>
+      <c r="G47">
+        <v>0.04924779068627951</v>
+      </c>
+      <c r="H47">
+        <v>0.03812151863053271</v>
+      </c>
+      <c r="I47">
+        <v>0.1196395183874999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.00749040022512533</v>
+        <v>0.00468065783464498</v>
       </c>
       <c r="C48">
-        <v>0.01495931482313395</v>
+        <v>-0.02738217065958673</v>
       </c>
       <c r="D48">
-        <v>0.09261801746832879</v>
+        <v>-0.08073457953291639</v>
       </c>
       <c r="E48">
-        <v>-0.05650039663260661</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004240245235368712</v>
+      </c>
+      <c r="F48">
+        <v>-0.03809954790938402</v>
+      </c>
+      <c r="G48">
+        <v>0.0002169515793605159</v>
+      </c>
+      <c r="H48">
+        <v>0.09679021743237236</v>
+      </c>
+      <c r="I48">
+        <v>0.006111367002161637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04251870068097913</v>
+        <v>0.01279644340001817</v>
       </c>
       <c r="C50">
-        <v>0.05964824128447893</v>
+        <v>-0.07383006328087739</v>
       </c>
       <c r="D50">
-        <v>0.06789542887187984</v>
+        <v>-0.04596604557901349</v>
       </c>
       <c r="E50">
-        <v>-0.009411372340132326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.002158390213373691</v>
+      </c>
+      <c r="F50">
+        <v>-0.004524260255193178</v>
+      </c>
+      <c r="G50">
+        <v>-0.01861591099525152</v>
+      </c>
+      <c r="H50">
+        <v>0.03214144248946803</v>
+      </c>
+      <c r="I50">
+        <v>0.09383474459553805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002919563177616849</v>
+        <v>0.0008800481736828808</v>
       </c>
       <c r="C51">
-        <v>0.003497867975777841</v>
+        <v>-0.01490145606990309</v>
       </c>
       <c r="D51">
-        <v>0.05733040506532947</v>
+        <v>-0.06196188265920891</v>
       </c>
       <c r="E51">
-        <v>-2.225487425255808e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03722799510867502</v>
+      </c>
+      <c r="F51">
+        <v>-0.03634518933002715</v>
+      </c>
+      <c r="G51">
+        <v>-0.0295546757817342</v>
+      </c>
+      <c r="H51">
+        <v>0.04725084705535448</v>
+      </c>
+      <c r="I51">
+        <v>0.01845242268794985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1141623517918654</v>
+        <v>0.05869199501238753</v>
       </c>
       <c r="C53">
-        <v>0.1175502667005468</v>
+        <v>-0.1568839606745226</v>
       </c>
       <c r="D53">
-        <v>0.01889135768357121</v>
+        <v>0.013135393417878</v>
       </c>
       <c r="E53">
-        <v>-0.05665543414577569</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03331997183288378</v>
+      </c>
+      <c r="F53">
+        <v>-0.04522352954797837</v>
+      </c>
+      <c r="G53">
+        <v>-0.003559997608635531</v>
+      </c>
+      <c r="H53">
+        <v>0.004227853538464802</v>
+      </c>
+      <c r="I53">
+        <v>0.06073009864366761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01612238246077284</v>
+        <v>0.01049552231302824</v>
       </c>
       <c r="C54">
-        <v>0.02142113231959956</v>
+        <v>-0.03864556615475413</v>
       </c>
       <c r="D54">
-        <v>0.09949701803089042</v>
+        <v>-0.08325096759986961</v>
       </c>
       <c r="E54">
-        <v>-0.001702192940307696</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01283302156348542</v>
+      </c>
+      <c r="F54">
+        <v>0.002304630884632025</v>
+      </c>
+      <c r="G54">
+        <v>-0.02301941961391077</v>
+      </c>
+      <c r="H54">
+        <v>0.09873218156392193</v>
+      </c>
+      <c r="I54">
+        <v>0.02463080259875739</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1015132305773548</v>
+        <v>0.04484434203186055</v>
       </c>
       <c r="C55">
-        <v>0.09956923802306918</v>
+        <v>-0.1294136441345844</v>
       </c>
       <c r="D55">
-        <v>0.009058155913104262</v>
+        <v>0.02645687542412653</v>
       </c>
       <c r="E55">
-        <v>-0.01231326636182218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.001429904861424054</v>
+      </c>
+      <c r="F55">
+        <v>-0.01203801248231897</v>
+      </c>
+      <c r="G55">
+        <v>-0.01228896636371385</v>
+      </c>
+      <c r="H55">
+        <v>0.008153852917778637</v>
+      </c>
+      <c r="I55">
+        <v>0.07378830962927359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1412353925453752</v>
+        <v>0.06317582818956009</v>
       </c>
       <c r="C56">
-        <v>0.1332566360100025</v>
+        <v>-0.1881516917581343</v>
       </c>
       <c r="D56">
-        <v>0.005221564529185364</v>
+        <v>0.02343467430781098</v>
       </c>
       <c r="E56">
-        <v>-0.01337379002191837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03230846622966645</v>
+      </c>
+      <c r="F56">
+        <v>-0.0116697222188952</v>
+      </c>
+      <c r="G56">
+        <v>-0.06043756077661114</v>
+      </c>
+      <c r="H56">
+        <v>0.002820824280276434</v>
+      </c>
+      <c r="I56">
+        <v>0.08773185919309338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.003724038422319961</v>
+        <v>0.004057539949381772</v>
       </c>
       <c r="C58">
-        <v>0.01037336881262237</v>
+        <v>-0.04645331470539946</v>
       </c>
       <c r="D58">
-        <v>0.2181007662011171</v>
+        <v>-0.2855003440358437</v>
       </c>
       <c r="E58">
-        <v>-0.08080175952342675</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02307336811863862</v>
+      </c>
+      <c r="F58">
+        <v>-0.09305739322736273</v>
+      </c>
+      <c r="G58">
+        <v>-0.1243515704126119</v>
+      </c>
+      <c r="H58">
+        <v>-0.09746674227026215</v>
+      </c>
+      <c r="I58">
+        <v>-0.07569503680127265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1675979692458569</v>
+        <v>0.2465868532577749</v>
       </c>
       <c r="C59">
-        <v>-0.1577391362497589</v>
+        <v>0.06896098640313181</v>
       </c>
       <c r="D59">
-        <v>0.04740851938589234</v>
+        <v>-0.06009396658566728</v>
       </c>
       <c r="E59">
-        <v>-0.03912992538105689</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03548590169780567</v>
+      </c>
+      <c r="F59">
+        <v>-0.01405462362059289</v>
+      </c>
+      <c r="G59">
+        <v>-0.003031924169447498</v>
+      </c>
+      <c r="H59">
+        <v>-0.009188438380229908</v>
+      </c>
+      <c r="I59">
+        <v>0.05618212311016217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1965483776403897</v>
+        <v>0.1535956816166829</v>
       </c>
       <c r="C60">
-        <v>0.08952618928311053</v>
+        <v>-0.1698399035178067</v>
       </c>
       <c r="D60">
-        <v>0.1865219434840182</v>
+        <v>-0.09157094186463666</v>
       </c>
       <c r="E60">
-        <v>0.1756635984453682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2298429175544414</v>
+      </c>
+      <c r="F60">
+        <v>0.1561908408385183</v>
+      </c>
+      <c r="G60">
+        <v>0.2224780618553037</v>
+      </c>
+      <c r="H60">
+        <v>-0.2176727131253298</v>
+      </c>
+      <c r="I60">
+        <v>0.007336863504453892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03153369558133519</v>
+        <v>0.01245797627410718</v>
       </c>
       <c r="C61">
-        <v>0.05197578723975826</v>
+        <v>-0.07092928777894189</v>
       </c>
       <c r="D61">
-        <v>0.1035290189583435</v>
+        <v>-0.08135407451908146</v>
       </c>
       <c r="E61">
-        <v>0.008658843482199214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03674023644327058</v>
+      </c>
+      <c r="F61">
+        <v>0.0136960901631095</v>
+      </c>
+      <c r="G61">
+        <v>0.02728221293142673</v>
+      </c>
+      <c r="H61">
+        <v>0.09621745397439557</v>
+      </c>
+      <c r="I61">
+        <v>-0.02243961346438669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.009328860537710705</v>
+        <v>0.002164314707364748</v>
       </c>
       <c r="C63">
-        <v>0.025530837934291</v>
+        <v>-0.03561890423016575</v>
       </c>
       <c r="D63">
-        <v>0.09145363043645036</v>
+        <v>-0.06987901613103849</v>
       </c>
       <c r="E63">
-        <v>-0.01282164864453066</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02937135944225842</v>
+      </c>
+      <c r="F63">
+        <v>-0.02066423618314055</v>
+      </c>
+      <c r="G63">
+        <v>-0.004901572463860211</v>
+      </c>
+      <c r="H63">
+        <v>0.06491299096394779</v>
+      </c>
+      <c r="I63">
+        <v>-0.01017743898703672</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06447923777832558</v>
+        <v>0.021681082299336</v>
       </c>
       <c r="C64">
-        <v>0.07867676516356169</v>
+        <v>-0.1035593366025605</v>
       </c>
       <c r="D64">
-        <v>0.03873812616413201</v>
+        <v>-0.02608674283193147</v>
       </c>
       <c r="E64">
-        <v>-0.02305380970846406</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0255374105814194</v>
+      </c>
+      <c r="F64">
+        <v>-0.0246598486292718</v>
+      </c>
+      <c r="G64">
+        <v>0.04940844900092742</v>
+      </c>
+      <c r="H64">
+        <v>0.1135594370582558</v>
+      </c>
+      <c r="I64">
+        <v>-0.06584598396879228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0277154809240614</v>
+        <v>0.0220677253304169</v>
       </c>
       <c r="C65">
-        <v>0.01625205093714811</v>
+        <v>-0.04109780531014925</v>
       </c>
       <c r="D65">
-        <v>0.1199646548665373</v>
+        <v>-0.1200168557841373</v>
       </c>
       <c r="E65">
-        <v>-0.003262082564752559</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04627378366689068</v>
+      </c>
+      <c r="F65">
+        <v>-0.003111363291930756</v>
+      </c>
+      <c r="G65">
+        <v>0.02500680250136204</v>
+      </c>
+      <c r="H65">
+        <v>0.04699597603310469</v>
+      </c>
+      <c r="I65">
+        <v>-0.02325419996429233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02371051065054608</v>
+        <v>0.002110509927627737</v>
       </c>
       <c r="C66">
-        <v>0.06305018883505273</v>
+        <v>-0.08949309930115371</v>
       </c>
       <c r="D66">
-        <v>0.1209102881655707</v>
+        <v>-0.12815183268398</v>
       </c>
       <c r="E66">
-        <v>0.02144554222505693</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03390829470336074</v>
+      </c>
+      <c r="F66">
+        <v>0.01009001387279526</v>
+      </c>
+      <c r="G66">
+        <v>-0.006587643562587397</v>
+      </c>
+      <c r="H66">
+        <v>0.06652225533298423</v>
+      </c>
+      <c r="I66">
+        <v>-0.06996568588669588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02695841445443708</v>
+        <v>0.02332701146014989</v>
       </c>
       <c r="C67">
-        <v>0.01696988597566639</v>
+        <v>-0.027616704897659</v>
       </c>
       <c r="D67">
-        <v>0.03966675592893773</v>
+        <v>-0.03377458544245659</v>
       </c>
       <c r="E67">
-        <v>0.01513664364046374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004626633077811387</v>
+      </c>
+      <c r="F67">
+        <v>0.03017045015809379</v>
+      </c>
+      <c r="G67">
+        <v>-0.006640698053283683</v>
+      </c>
+      <c r="H67">
+        <v>0.06080479595299892</v>
+      </c>
+      <c r="I67">
+        <v>0.01858490036503955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1938042190560089</v>
+        <v>0.2701887502379629</v>
       </c>
       <c r="C68">
-        <v>-0.1720477594920525</v>
+        <v>0.06974275874065888</v>
       </c>
       <c r="D68">
-        <v>0.03160124381713993</v>
+        <v>-0.03549448802926432</v>
       </c>
       <c r="E68">
-        <v>-0.01174739612699312</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004798291641425371</v>
+      </c>
+      <c r="F68">
+        <v>-0.02798552535942511</v>
+      </c>
+      <c r="G68">
+        <v>-0.06817997555443119</v>
+      </c>
+      <c r="H68">
+        <v>-0.03800747278858669</v>
+      </c>
+      <c r="I68">
+        <v>0.08607950574128384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06588178557463756</v>
+        <v>0.02019150942731684</v>
       </c>
       <c r="C69">
-        <v>0.1135187907265839</v>
+        <v>-0.118943580779239</v>
       </c>
       <c r="D69">
-        <v>0.08319150534099448</v>
+        <v>-0.03665096236308457</v>
       </c>
       <c r="E69">
-        <v>-0.01524791306217446</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.002436218989848824</v>
+      </c>
+      <c r="F69">
+        <v>0.01397984158066346</v>
+      </c>
+      <c r="G69">
+        <v>0.03355330540313997</v>
+      </c>
+      <c r="H69">
+        <v>0.03848928413899523</v>
+      </c>
+      <c r="I69">
+        <v>0.07984961977943812</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.200334983537604</v>
+        <v>0.2708594703113216</v>
       </c>
       <c r="C71">
-        <v>-0.1918348092549974</v>
+        <v>0.08568444048714749</v>
       </c>
       <c r="D71">
-        <v>0.02574661683805296</v>
+        <v>-0.02188959275288871</v>
       </c>
       <c r="E71">
-        <v>-0.01513758156013451</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008150751713618702</v>
+      </c>
+      <c r="F71">
+        <v>-0.01252574149846002</v>
+      </c>
+      <c r="G71">
+        <v>-0.03067672128208336</v>
+      </c>
+      <c r="H71">
+        <v>0.01787782872673825</v>
+      </c>
+      <c r="I71">
+        <v>0.137903326819278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1109035570778705</v>
+        <v>0.05836631999530364</v>
       </c>
       <c r="C72">
-        <v>0.06625946296439583</v>
+        <v>-0.122155800045089</v>
       </c>
       <c r="D72">
-        <v>0.1007212336247283</v>
+        <v>-0.06234376900090998</v>
       </c>
       <c r="E72">
-        <v>0.05005532903075782</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08563537415114007</v>
+      </c>
+      <c r="F72">
+        <v>0.01444520463976741</v>
+      </c>
+      <c r="G72">
+        <v>0.02494822694297537</v>
+      </c>
+      <c r="H72">
+        <v>0.05723401239471074</v>
+      </c>
+      <c r="I72">
+        <v>-0.06855143314500818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1819332504727064</v>
+        <v>0.1380311636880013</v>
       </c>
       <c r="C73">
-        <v>0.05516089542823199</v>
+        <v>-0.1422627796211084</v>
       </c>
       <c r="D73">
-        <v>0.2621892477978265</v>
+        <v>-0.1023872563677827</v>
       </c>
       <c r="E73">
-        <v>0.2711304004069633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3769572414496263</v>
+      </c>
+      <c r="F73">
+        <v>0.2360020635981903</v>
+      </c>
+      <c r="G73">
+        <v>0.4174813737481979</v>
+      </c>
+      <c r="H73">
+        <v>-0.1653639434828768</v>
+      </c>
+      <c r="I73">
+        <v>-0.03805787275948327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1148087159834487</v>
+        <v>0.05335049817897769</v>
       </c>
       <c r="C74">
-        <v>0.1096454084974552</v>
+        <v>-0.1486598098990146</v>
       </c>
       <c r="D74">
-        <v>-0.01970782641407804</v>
+        <v>0.03866202168115063</v>
       </c>
       <c r="E74">
-        <v>-0.04039161072377385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01046186033992609</v>
+      </c>
+      <c r="F74">
+        <v>-0.03843921872129816</v>
+      </c>
+      <c r="G74">
+        <v>-0.004400515122392337</v>
+      </c>
+      <c r="H74">
+        <v>-0.0117234688705129</v>
+      </c>
+      <c r="I74">
+        <v>0.09478345175404439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2454463046146486</v>
+        <v>0.1171378284422615</v>
       </c>
       <c r="C75">
-        <v>0.1845683367669814</v>
+        <v>-0.2694218916987045</v>
       </c>
       <c r="D75">
-        <v>-0.1103434480091913</v>
+        <v>0.13222407118535</v>
       </c>
       <c r="E75">
-        <v>0.01379884700626203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09050486742033703</v>
+      </c>
+      <c r="F75">
+        <v>0.04042849145268632</v>
+      </c>
+      <c r="G75">
+        <v>-0.1005512585998276</v>
+      </c>
+      <c r="H75">
+        <v>0.0007968314896857134</v>
+      </c>
+      <c r="I75">
+        <v>0.06470881302163861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1483433762814608</v>
+        <v>0.06795044526479768</v>
       </c>
       <c r="C76">
-        <v>0.1290153522972624</v>
+        <v>-0.1823540662546371</v>
       </c>
       <c r="D76">
-        <v>0.01901057024846007</v>
+        <v>0.03032924411742298</v>
       </c>
       <c r="E76">
-        <v>-0.01397790902011436</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02535509539459557</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006005119572160579</v>
+      </c>
+      <c r="G76">
+        <v>-0.04030583086715755</v>
+      </c>
+      <c r="H76">
+        <v>0.02962262533815776</v>
+      </c>
+      <c r="I76">
+        <v>0.07942781800119976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01342371608204956</v>
+        <v>0.02275136793805206</v>
       </c>
       <c r="C77">
-        <v>0.07464819463657028</v>
+        <v>-0.09181496643922234</v>
       </c>
       <c r="D77">
-        <v>0.05184277305006765</v>
+        <v>-0.2795621498299738</v>
       </c>
       <c r="E77">
-        <v>-0.2208155302668508</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.765806617373234</v>
+      </c>
+      <c r="F77">
+        <v>0.3200105523313255</v>
+      </c>
+      <c r="G77">
+        <v>0.2867268575485852</v>
+      </c>
+      <c r="H77">
+        <v>-0.2358531295076761</v>
+      </c>
+      <c r="I77">
+        <v>0.02479136923007774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02785281454424394</v>
+        <v>0.01355663775092778</v>
       </c>
       <c r="C78">
-        <v>0.06348958464795951</v>
+        <v>-0.08319248406531959</v>
       </c>
       <c r="D78">
-        <v>0.1475610111250512</v>
+        <v>-0.1325995430123413</v>
       </c>
       <c r="E78">
-        <v>-0.04484615738448572</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04742009126072726</v>
+      </c>
+      <c r="F78">
+        <v>-0.0489721917261739</v>
+      </c>
+      <c r="G78">
+        <v>-0.02979347959744336</v>
+      </c>
+      <c r="H78">
+        <v>0.01316540255547361</v>
+      </c>
+      <c r="I78">
+        <v>0.1067424620445397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09986573621718706</v>
+        <v>0.03595998949751783</v>
       </c>
       <c r="C79">
-        <v>0.1628461356859616</v>
+        <v>-0.185744252174896</v>
       </c>
       <c r="D79">
-        <v>-0.09918030860039372</v>
+        <v>0.06871140609763957</v>
       </c>
       <c r="E79">
-        <v>-0.7956002595866999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1235060285192967</v>
+      </c>
+      <c r="F79">
+        <v>-0.8119541859530295</v>
+      </c>
+      <c r="G79">
+        <v>0.3716507874979375</v>
+      </c>
+      <c r="H79">
+        <v>-0.2235876399593862</v>
+      </c>
+      <c r="I79">
+        <v>-0.1273002487233669</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.007394499725766586</v>
+        <v>6.475181753285678e-05</v>
       </c>
       <c r="C80">
-        <v>0.0456051482918567</v>
+        <v>-0.04612123502068515</v>
       </c>
       <c r="D80">
-        <v>0.04754344263413865</v>
+        <v>-0.04271555015586773</v>
       </c>
       <c r="E80">
-        <v>0.005110025202659922</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02537100659799157</v>
+      </c>
+      <c r="F80">
+        <v>-0.007546769910383363</v>
+      </c>
+      <c r="G80">
+        <v>-0.02519799867458095</v>
+      </c>
+      <c r="H80">
+        <v>0.0197234655785334</v>
+      </c>
+      <c r="I80">
+        <v>0.06325511345863576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1257435299777614</v>
+        <v>0.04732068170419589</v>
       </c>
       <c r="C81">
-        <v>0.1261871370006671</v>
+        <v>-0.1659660836817776</v>
       </c>
       <c r="D81">
-        <v>-0.07241342812232079</v>
+        <v>0.07816303020791009</v>
       </c>
       <c r="E81">
-        <v>-0.0673293063892061</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07181028691289951</v>
+      </c>
+      <c r="F81">
+        <v>-0.04313073001818012</v>
+      </c>
+      <c r="G81">
+        <v>-0.04726475820671824</v>
+      </c>
+      <c r="H81">
+        <v>0.06476388627754787</v>
+      </c>
+      <c r="I81">
+        <v>0.1145272678840668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2704844011443199</v>
+        <v>0.1027065958782245</v>
       </c>
       <c r="C82">
-        <v>0.2809800046792316</v>
+        <v>-0.3302022246358869</v>
       </c>
       <c r="D82">
-        <v>-0.1994233856980724</v>
+        <v>0.2215210568625771</v>
       </c>
       <c r="E82">
-        <v>0.1256366139471108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05000197646173283</v>
+      </c>
+      <c r="F82">
+        <v>0.1279015155357155</v>
+      </c>
+      <c r="G82">
+        <v>-0.07788221422867656</v>
+      </c>
+      <c r="H82">
+        <v>0.1003415562115968</v>
+      </c>
+      <c r="I82">
+        <v>0.05584846256088772</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002660928460035356</v>
+        <v>-0.01349502120677203</v>
       </c>
       <c r="C83">
-        <v>0.05285488126173556</v>
+        <v>-0.03331631872909723</v>
       </c>
       <c r="D83">
-        <v>0.01351308669513037</v>
+        <v>-0.03601603044254438</v>
       </c>
       <c r="E83">
-        <v>-0.057216617423786</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09247947042006781</v>
+      </c>
+      <c r="F83">
+        <v>-0.03390439981831442</v>
+      </c>
+      <c r="G83">
+        <v>-0.06641718701040353</v>
+      </c>
+      <c r="H83">
+        <v>0.03027481487780227</v>
+      </c>
+      <c r="I83">
+        <v>0.459752060664786</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.001084486780187975</v>
+        <v>-0.003111618929186464</v>
       </c>
       <c r="C84">
-        <v>-0.001878295986097955</v>
+        <v>-0.01599128947971668</v>
       </c>
       <c r="D84">
-        <v>0.0046037523354424</v>
+        <v>-0.04358293098032123</v>
       </c>
       <c r="E84">
-        <v>-0.0005093519104928177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0119932962988707</v>
+      </c>
+      <c r="F84">
+        <v>-0.01929567715457178</v>
+      </c>
+      <c r="G84">
+        <v>-0.05061027767080956</v>
+      </c>
+      <c r="H84">
+        <v>0.006318055950921338</v>
+      </c>
+      <c r="I84">
+        <v>-0.05304395529525493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1488822954877342</v>
+        <v>0.06220629063519562</v>
       </c>
       <c r="C85">
-        <v>0.131974316575546</v>
+        <v>-0.1845147417259307</v>
       </c>
       <c r="D85">
-        <v>-0.04192528775015482</v>
+        <v>0.08766578112734189</v>
       </c>
       <c r="E85">
-        <v>-0.02941118383090032</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.00227086451280003</v>
+      </c>
+      <c r="F85">
+        <v>-0.0780508398941184</v>
+      </c>
+      <c r="G85">
+        <v>-0.03528205609029332</v>
+      </c>
+      <c r="H85">
+        <v>0.008169327845899096</v>
+      </c>
+      <c r="I85">
+        <v>0.07387634767152336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01288671047348897</v>
+        <v>0.0103201153368438</v>
       </c>
       <c r="C86">
-        <v>0.01112426047432176</v>
+        <v>-0.02884285207362099</v>
       </c>
       <c r="D86">
-        <v>0.07717375138532527</v>
+        <v>-0.1053375942226424</v>
       </c>
       <c r="E86">
-        <v>-0.05067599536941943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04044885757039177</v>
+      </c>
+      <c r="F86">
+        <v>0.01454731639779659</v>
+      </c>
+      <c r="G86">
+        <v>0.02961996821974185</v>
+      </c>
+      <c r="H86">
+        <v>0.0005147105223502462</v>
+      </c>
+      <c r="I86">
+        <v>0.08451684092165423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01501415107090759</v>
+        <v>0.008517246304135476</v>
       </c>
       <c r="C87">
-        <v>0.02631976672205626</v>
+        <v>-0.05300965062603705</v>
       </c>
       <c r="D87">
-        <v>0.1289912054168769</v>
+        <v>-0.1440182111618047</v>
       </c>
       <c r="E87">
-        <v>-0.0490331305794277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.003942728922437643</v>
+      </c>
+      <c r="F87">
+        <v>-0.04074907832334684</v>
+      </c>
+      <c r="G87">
+        <v>-0.06212957543309899</v>
+      </c>
+      <c r="H87">
+        <v>0.02961210727446647</v>
+      </c>
+      <c r="I87">
+        <v>-0.0112587399854166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05872996487998186</v>
+        <v>0.03057567397623683</v>
       </c>
       <c r="C88">
-        <v>0.0449054567408347</v>
+        <v>-0.06821695063290331</v>
       </c>
       <c r="D88">
-        <v>0.02738189718125027</v>
+        <v>-0.005527006599886293</v>
       </c>
       <c r="E88">
-        <v>-0.03017932840925438</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01368297591485083</v>
+      </c>
+      <c r="F88">
+        <v>-0.02091886586275233</v>
+      </c>
+      <c r="G88">
+        <v>-0.00237271677810902</v>
+      </c>
+      <c r="H88">
+        <v>0.02577402513767231</v>
+      </c>
+      <c r="I88">
+        <v>0.01835604326760002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.2998754140187094</v>
+        <v>0.4105399213768027</v>
       </c>
       <c r="C89">
-        <v>-0.351174852856777</v>
+        <v>0.1706831438245317</v>
       </c>
       <c r="D89">
-        <v>0.01110181224733188</v>
+        <v>-0.01997686877571401</v>
       </c>
       <c r="E89">
-        <v>-0.09779475123445992</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02578879064898559</v>
+      </c>
+      <c r="F89">
+        <v>-0.07915522508143158</v>
+      </c>
+      <c r="G89">
+        <v>-0.05744448472865131</v>
+      </c>
+      <c r="H89">
+        <v>0.1452120765046445</v>
+      </c>
+      <c r="I89">
+        <v>-0.2120622592886465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2404862956217996</v>
+        <v>0.3153544833757129</v>
       </c>
       <c r="C90">
-        <v>-0.2564502293097213</v>
+        <v>0.1124618327653099</v>
       </c>
       <c r="D90">
-        <v>0.0387290881243595</v>
+        <v>-0.03452063695588709</v>
       </c>
       <c r="E90">
-        <v>0.008158213482718411</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01542710087003724</v>
+      </c>
+      <c r="F90">
+        <v>0.02004559328953444</v>
+      </c>
+      <c r="G90">
+        <v>-0.05923501014230713</v>
+      </c>
+      <c r="H90">
+        <v>-0.02381446221471475</v>
+      </c>
+      <c r="I90">
+        <v>0.07933656296543766</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1651793883258561</v>
+        <v>0.07260081712415549</v>
       </c>
       <c r="C91">
-        <v>0.1776662493883711</v>
+        <v>-0.2123022638855966</v>
       </c>
       <c r="D91">
-        <v>-0.0952524084100113</v>
+        <v>0.105632279549158</v>
       </c>
       <c r="E91">
-        <v>-0.09641264551218372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06576254253546973</v>
+      </c>
+      <c r="F91">
+        <v>-0.06603656280906063</v>
+      </c>
+      <c r="G91">
+        <v>-0.01047054263321392</v>
+      </c>
+      <c r="H91">
+        <v>0.005585128608006884</v>
+      </c>
+      <c r="I91">
+        <v>0.1025626389436717</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2222532757661446</v>
+        <v>0.3368498507517623</v>
       </c>
       <c r="C92">
-        <v>-0.2723770761847719</v>
+        <v>0.1471531766776373</v>
       </c>
       <c r="D92">
-        <v>-0.05281730748141658</v>
+        <v>0.001634605628532618</v>
       </c>
       <c r="E92">
-        <v>-0.05605660156539664</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07324820497510959</v>
+      </c>
+      <c r="F92">
+        <v>-0.01602225304277458</v>
+      </c>
+      <c r="G92">
+        <v>-0.0193649256547709</v>
+      </c>
+      <c r="H92">
+        <v>0.03501799914560503</v>
+      </c>
+      <c r="I92">
+        <v>-0.2371570067935384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2623108769701113</v>
+        <v>0.3331003806318742</v>
       </c>
       <c r="C93">
-        <v>-0.2681896680375315</v>
+        <v>0.1212106415089805</v>
       </c>
       <c r="D93">
-        <v>0.01391034727554682</v>
+        <v>0.01553098758625707</v>
       </c>
       <c r="E93">
-        <v>-0.003239470834230876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02714057650525279</v>
+      </c>
+      <c r="F93">
+        <v>-0.01224589692026649</v>
+      </c>
+      <c r="G93">
+        <v>0.0194547836048701</v>
+      </c>
+      <c r="H93">
+        <v>-0.002373168607668573</v>
+      </c>
+      <c r="I93">
+        <v>0.06254325244018923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.312825251307033</v>
+        <v>0.1422162419713666</v>
       </c>
       <c r="C94">
-        <v>0.2526647961967126</v>
+        <v>-0.3603018281017379</v>
       </c>
       <c r="D94">
-        <v>-0.3596090322872626</v>
+        <v>0.3398104070221283</v>
       </c>
       <c r="E94">
-        <v>0.2007640210008713</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04609248432205201</v>
+      </c>
+      <c r="F94">
+        <v>0.1173140093840118</v>
+      </c>
+      <c r="G94">
+        <v>-0.3057812289621631</v>
+      </c>
+      <c r="H94">
+        <v>-0.05465975285191304</v>
+      </c>
+      <c r="I94">
+        <v>-0.3396682850659257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01672863754845128</v>
+        <v>0.01865662585431799</v>
       </c>
       <c r="C95">
-        <v>0.0357007713654031</v>
+        <v>-0.05963203622278074</v>
       </c>
       <c r="D95">
-        <v>0.04502334727278157</v>
+        <v>-0.1085235746342329</v>
       </c>
       <c r="E95">
-        <v>-0.09361478341407342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1905433322333536</v>
+      </c>
+      <c r="F95">
+        <v>0.07737675824133539</v>
+      </c>
+      <c r="G95">
+        <v>0.1352056820677675</v>
+      </c>
+      <c r="H95">
+        <v>0.3820754444385399</v>
+      </c>
+      <c r="I95">
+        <v>-0.4631137853897323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0009796392079309693</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-7.999118873386687e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.001072350867837742</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001662695872140843</v>
+      </c>
+      <c r="F97">
+        <v>0.001809824669585211</v>
+      </c>
+      <c r="G97">
+        <v>0.002025065116070675</v>
+      </c>
+      <c r="H97">
+        <v>0.0002245299720352493</v>
+      </c>
+      <c r="I97">
+        <v>-0.002398966208079773</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1526875584015094</v>
+        <v>0.1157587849584258</v>
       </c>
       <c r="C98">
-        <v>0.071976798597906</v>
+        <v>-0.142797464944171</v>
       </c>
       <c r="D98">
-        <v>0.1436598930566372</v>
+        <v>-0.06354994213674942</v>
       </c>
       <c r="E98">
-        <v>0.1990428177019331</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2674669919961452</v>
+      </c>
+      <c r="F98">
+        <v>0.1680768045686401</v>
+      </c>
+      <c r="G98">
+        <v>0.2670070087433268</v>
+      </c>
+      <c r="H98">
+        <v>-0.175845912644448</v>
+      </c>
+      <c r="I98">
+        <v>-0.02013518897965542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0007401301157045057</v>
+        <v>-0.002091970423107273</v>
       </c>
       <c r="C101">
-        <v>0.02074196859078738</v>
+        <v>-0.02906257222974789</v>
       </c>
       <c r="D101">
-        <v>0.09667975148828141</v>
+        <v>-0.09927006124641792</v>
       </c>
       <c r="E101">
-        <v>-0.01484674183537919</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03856084715414918</v>
+      </c>
+      <c r="F101">
+        <v>-0.03517345484174657</v>
+      </c>
+      <c r="G101">
+        <v>-0.00429267984602646</v>
+      </c>
+      <c r="H101">
+        <v>0.1422695371900906</v>
+      </c>
+      <c r="I101">
+        <v>0.01813785826243068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1155275637062026</v>
+        <v>0.03484115517618262</v>
       </c>
       <c r="C102">
-        <v>0.1492015282642709</v>
+        <v>-0.1528270456589304</v>
       </c>
       <c r="D102">
-        <v>-0.06631819367516362</v>
+        <v>0.09061602025266732</v>
       </c>
       <c r="E102">
-        <v>0.04332867479297777</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02981834233863296</v>
+      </c>
+      <c r="F102">
+        <v>0.06809351149253143</v>
+      </c>
+      <c r="G102">
+        <v>0.01393865281485322</v>
+      </c>
+      <c r="H102">
+        <v>0.05036402541867297</v>
+      </c>
+      <c r="I102">
+        <v>0.02325478923676709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
